--- a/out.xlsx
+++ b/out.xlsx
@@ -587,7 +587,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['message', 'error']</t>
+          <t>['error', 'message']</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['message', 'error']</t>
+          <t>['error', 'message']</t>
         </is>
       </c>
     </row>
